--- a/data.xlsx
+++ b/data.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="6942" windowHeight="7103"/>
+    <workbookView windowWidth="19966" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$6</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>funding_stage</t>
   </si>
@@ -25,48 +25,100 @@
     <t>exit_rate</t>
   </si>
   <si>
+    <t>failuare_rate</t>
+  </si>
+  <si>
     <t>reference</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>https://dealroom.co/uploaded/2020/08/Probability-3.pdf</t>
+  </si>
+  <si>
+    <t>https://investorconnect.org/startup-success-rates/</t>
+  </si>
+  <si>
+    <t>https://medium.com/journal-of-empirical-entrepreneurship/dissecting-startup-failure-by-stage-34bb70354a37</t>
+  </si>
+  <si>
+    <t>https://medium.com/@bharatanant/evaluating-the-risk-reward-relationship-across-funding-rounds-5c951f21237b</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>https://dealroom.co/uploaded/2020/08/Probability-4.pdf</t>
+  </si>
+  <si>
+    <t>https://medium.com/journal-of-empirical-entrepreneurship/dissecting-startup-failure-by-stage-34bb70354a38</t>
+  </si>
+  <si>
+    <t>https://medium.com/@bharatanant/evaluating-the-risk-reward-relationship-across-funding-rounds-5c951f21238b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>https://dealroom.co/uploaded/2020/08/Probability-5.pdf</t>
+  </si>
+  <si>
+    <t>https://medium.com/journal-of-empirical-entrepreneurship/dissecting-startup-failure-by-stage-34bb70354a39</t>
+  </si>
+  <si>
+    <t>https://medium.com/@bharatanant/evaluating-the-risk-reward-relationship-across-funding-rounds-5c951f21239b</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>https://dealroom.co/uploaded/2020/08/Probability-6.pdf</t>
+  </si>
+  <si>
+    <t>https://medium.com/journal-of-empirical-entrepreneurship/dissecting-startup-failure-by-stage-34bb70354a40</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>https://medium.com/journal-of-empirical-entrepreneurship/dissecting-startup-failure-by-stage-34bb70354a41</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>https://medium.com/journal-of-empirical-entrepreneurship/dissecting-startup-failure-by-stage-34bb70354a42</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>https://medium.com/journal-of-empirical-entrepreneurship/dissecting-startup-failure-by-stage-34bb70354a43</t>
+  </si>
+  <si>
     <t>seed</t>
   </si>
   <si>
     <t>https://dealroom.co/uploaded/2020/08/Probability-2.pdf</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>https://dealroom.co/uploaded/2020/08/Probability-3.pdf</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>https://dealroom.co/uploaded/2020/08/Probability-4.pdf</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>https://dealroom.co/uploaded/2020/08/Probability-5.pdf</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>https://dealroom.co/uploaded/2020/08/Probability-6.pdf</t>
+    <t>https://medium.com/journal-of-empirical-entrepreneurship/dissecting-startup-failure-by-stage-34bb70354a36</t>
+  </si>
+  <si>
+    <t>https://medium.com/@bharatanant/evaluating-the-risk-reward-relationship-across-funding-rounds-5c951f21236b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??.000_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -77,6 +129,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -85,46 +145,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,16 +188,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,17 +234,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,32 +257,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,19 +282,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,7 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,151 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,11 +485,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,30 +524,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -492,6 +535,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,21 +573,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -542,135 +594,137 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -990,88 +1044,299 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20.6822429906542" customWidth="1"/>
-    <col min="3" max="3" width="55.0560747663551" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="12.7196261682243" customWidth="1"/>
+    <col min="4" max="4" width="108.467289719626" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <f>1-C:C</f>
+        <v>0.113</v>
+      </c>
+      <c r="C4">
+        <v>0.887</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <f>1-C:C</f>
+        <v>0.159</v>
+      </c>
+      <c r="C8">
+        <v>0.841</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.56</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <f>1-C:C</f>
+        <v>0.193</v>
+      </c>
+      <c r="C11">
+        <v>0.807</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
+        <f>1-C:C</f>
+        <v>0.219</v>
+      </c>
+      <c r="C14">
+        <v>0.781</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1">
+        <f>1-C:C</f>
+        <v>0.257</v>
+      </c>
+      <c r="C15">
+        <v>0.743</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <f>1-C:C</f>
+        <v>0.255</v>
+      </c>
+      <c r="C16">
+        <v>0.745</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1">
+        <f>1-C:C</f>
+        <v>0.276</v>
+      </c>
+      <c r="C17">
+        <v>0.724</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1">
         <v>0.07</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0.12</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="D19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0.18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>0.22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0.29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1">
+        <f>1-C:C</f>
+        <v>0.03</v>
+      </c>
+      <c r="C20">
+        <v>0.97</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C6">
+  <autoFilter ref="A1:D6">
     <extLst/>
   </autoFilter>
+  <sortState ref="A2:D21">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="D21" r:id="rId1" display="https://medium.com/@bharatanant/evaluating-the-risk-reward-relationship-across-funding-rounds-5c951f21236b"/>
+    <hyperlink ref="D5" r:id="rId1" display="https://medium.com/@bharatanant/evaluating-the-risk-reward-relationship-across-funding-rounds-5c951f21237b"/>
+    <hyperlink ref="D9" r:id="rId1" display="https://medium.com/@bharatanant/evaluating-the-risk-reward-relationship-across-funding-rounds-5c951f21238b"/>
+    <hyperlink ref="D12" r:id="rId1" display="https://medium.com/@bharatanant/evaluating-the-risk-reward-relationship-across-funding-rounds-5c951f21239b"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
